--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{C276993D-7D5F-436C-A7B7-FA25516B1122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="2" xr2:uid="{C276993D-7D5F-436C-A7B7-FA25516B1122}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>Email</t>
   </si>
@@ -112,69 +112,6 @@
     <t>Dec 31, 2016</t>
   </si>
   <si>
-    <t>Moore's, Toronto, ON</t>
-  </si>
-  <si>
-    <t>Aritzia, Montreal, ON</t>
-  </si>
-  <si>
-    <t>Dollarama, Richmond Hill, ON</t>
-  </si>
-  <si>
-    <t>Telus, Markham, ON</t>
-  </si>
-  <si>
-    <t>7-Eleven, Toronto, ON</t>
-  </si>
-  <si>
-    <t>Walmart, Montreal, ON</t>
-  </si>
-  <si>
-    <t>Target, Montreal, ON</t>
-  </si>
-  <si>
-    <t>Canadian Tire, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Freshco, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Rogers, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Dollarama, Orlando, FL</t>
-  </si>
-  <si>
-    <t>Best Buy, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Sobey's, Toronto, ON</t>
-  </si>
-  <si>
-    <t>Best Buy, Markham, ON</t>
-  </si>
-  <si>
-    <t>Winners, Kanata, ON</t>
-  </si>
-  <si>
-    <t>Tim Horton's, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>McDonald's, Peterborough, ON</t>
-  </si>
-  <si>
-    <t>Walmart, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Sears, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Loblaws, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Roots Canada, Kanata, ON</t>
-  </si>
-  <si>
     <t>Date of Transaction</t>
   </si>
   <si>
@@ -319,13 +256,82 @@
     <t>iiii87</t>
   </si>
   <si>
-    <t>Home Deport, Ottawa, ON</t>
-  </si>
-  <si>
-    <t>Hudson's Bay, Orlando, FL</t>
-  </si>
-  <si>
-    <t>Old Navy, Peterborough, ON</t>
+    <t>Moore's Toronto, ON</t>
+  </si>
+  <si>
+    <t>Aritzia Montreal, ON</t>
+  </si>
+  <si>
+    <t>Dollarama Vaughan, ON</t>
+  </si>
+  <si>
+    <t>LCBO Markham, ON</t>
+  </si>
+  <si>
+    <t>Telus Markham, ON</t>
+  </si>
+  <si>
+    <t>Sobey's Toronto, ON</t>
+  </si>
+  <si>
+    <t>7-Eleven Toronto, ON</t>
+  </si>
+  <si>
+    <t>Walmart Montreal, ON</t>
+  </si>
+  <si>
+    <t>IKEA Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Freshco Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Rogers Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Apple Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Dollarama Orlando, FL</t>
+  </si>
+  <si>
+    <t>Winners Kanata, ON</t>
+  </si>
+  <si>
+    <t>Telus Ottawa, ON</t>
+  </si>
+  <si>
+    <t>McDonald's Peterborough, ON</t>
+  </si>
+  <si>
+    <t>Walmart Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Sears Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Ardene Kanata, ON</t>
+  </si>
+  <si>
+    <t>Target Montreal, ON</t>
+  </si>
+  <si>
+    <t>Loblaws Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Sears Markham, ON</t>
+  </si>
+  <si>
+    <t>Target Orlando, FL</t>
+  </si>
+  <si>
+    <t>Starbucks Ottawa, ON</t>
+  </si>
+  <si>
+    <t>Ardene Peterborough, ON</t>
+  </si>
+  <si>
+    <t>Walmart Kanata, ON</t>
   </si>
 </sst>
 </file>
@@ -702,191 +708,191 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>90</v>
@@ -901,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CED751-3809-4B02-956C-005B15524670}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -931,7 +937,7 @@
         <v>3231</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -942,7 +948,7 @@
         <v>2312</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -953,7 +959,7 @@
         <v>13.24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -964,7 +970,7 @@
         <v>29.99</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -975,7 +981,7 @@
         <v>1231283192841.23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,7 +992,7 @@
         <v>348.99</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,7 +1003,7 @@
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1008,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1019,7 +1025,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1030,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1041,7 +1047,7 @@
         <v>13.45</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1052,7 +1058,7 @@
         <v>234.23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1063,7 +1069,7 @@
         <v>454.12</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1074,7 +1080,7 @@
         <v>34554.99</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1085,7 +1091,7 @@
         <v>765</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1096,7 +1102,7 @@
         <v>999</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1107,7 +1113,7 @@
         <v>69.87</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1118,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1129,7 +1135,7 @@
         <v>12.37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1140,7 +1146,7 @@
         <v>234234</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1151,7 +1157,7 @@
         <v>4765.21</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1162,7 +1168,7 @@
         <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1173,7 +1179,7 @@
         <v>88.99</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1184,7 +1190,7 @@
         <v>32.43</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1197,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487D51C7-BE25-4519-98A7-41EC82DBE73B}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1215,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1226,7 +1232,7 @@
         <v>21.32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1237,7 +1243,7 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1248,7 +1254,7 @@
         <v>13.24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1259,7 +1265,7 @@
         <v>29.99</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1270,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1281,7 +1287,7 @@
         <v>102.4</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1292,7 +1298,7 @@
         <v>92.56</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1303,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1314,7 +1320,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1325,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1336,7 +1342,7 @@
         <v>13.45</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1347,7 +1353,7 @@
         <v>234.23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1358,7 +1364,7 @@
         <v>454.12</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1369,7 +1375,7 @@
         <v>24.56</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1380,7 +1386,7 @@
         <v>76.5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1402,7 +1408,7 @@
         <v>69.87</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1413,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1424,7 +1430,7 @@
         <v>12.37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1435,7 +1441,7 @@
         <v>68.989999999999995</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1446,7 +1452,7 @@
         <v>88.88</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1457,7 +1463,7 @@
         <v>90.33</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1468,7 +1474,7 @@
         <v>6.37</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1479,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
